--- a/Onto_HidroSanitário/Ontologia_V1_Projeto_HidroSanitário.xlsx
+++ b/Onto_HidroSanitário/Ontologia_V1_Projeto_HidroSanitário.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ABNT_Normas\ABNT\Onto_Projeto_HidroSanitário\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7456199D-086C-4D9B-BF4C-99B018E78B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C230871E-3F0A-4B03-BD26-F0582024E817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -219,9 +219,6 @@
     <t>VENT</t>
   </si>
   <si>
-    <t>Hidrosanitário</t>
-  </si>
-  <si>
     <t>ifc.Conexão</t>
   </si>
   <si>
@@ -490,6 +487,9 @@
   </si>
   <si>
     <t>hsa:</t>
+  </si>
+  <si>
+    <t>Hidrosanitária</t>
   </si>
 </sst>
 </file>
@@ -1890,7 +1890,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B17" s="14">
         <f ca="1">NOW()</f>
-        <v>45378.688990972223</v>
+        <v>45379.269113657407</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2035,8 +2035,8 @@
   <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G80" sqref="G80"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2096,7 +2096,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>18</v>
@@ -2132,7 +2132,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>19</v>
@@ -2168,7 +2168,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>20</v>
@@ -2204,7 +2204,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>21</v>
@@ -2240,7 +2240,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>22</v>
@@ -2276,7 +2276,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>23</v>
@@ -2312,7 +2312,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>24</v>
@@ -2348,7 +2348,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>25</v>
@@ -2384,7 +2384,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>33</v>
@@ -2456,7 +2456,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>14</v>
@@ -2492,7 +2492,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>15</v>
@@ -2528,7 +2528,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>16</v>
@@ -2564,7 +2564,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>17</v>
@@ -2600,7 +2600,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>34</v>
@@ -2639,7 +2639,7 @@
         <v>57</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>13</v>
@@ -2664,7 +2664,7 @@
       </c>
       <c r="K17" s="8" t="str">
         <f>_xlfn.CONCAT("""","Projeto de instalação  ",C17,":   ",B17,"""")</f>
-        <v>"Projeto de instalação  Hidrosanitário:   Hidro"</v>
+        <v>"Projeto de instalação  Hidrosanitária:   Hidro"</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2852,7 +2852,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>47</v>
@@ -2867,7 +2867,7 @@
         <v>55</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H23" s="18" t="s">
         <v>13</v>
@@ -2888,7 +2888,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>47</v>
@@ -2903,7 +2903,7 @@
         <v>55</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H24" s="18" t="s">
         <v>13</v>
@@ -2924,7 +2924,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>47</v>
@@ -2939,7 +2939,7 @@
         <v>55</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H25" s="18" t="s">
         <v>13</v>
@@ -2960,7 +2960,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>47</v>
@@ -2975,7 +2975,7 @@
         <v>55</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H26" s="18" t="s">
         <v>13</v>
@@ -2996,7 +2996,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>47</v>
@@ -3011,7 +3011,7 @@
         <v>55</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H27" s="18" t="s">
         <v>13</v>
@@ -3032,7 +3032,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>47</v>
@@ -3047,7 +3047,7 @@
         <v>55</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H28" s="18" t="s">
         <v>13</v>
@@ -3068,7 +3068,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>47</v>
@@ -3083,7 +3083,7 @@
         <v>55</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H29" s="18" t="s">
         <v>13</v>
@@ -3104,7 +3104,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>47</v>
@@ -3119,7 +3119,7 @@
         <v>55</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H30" s="18" t="s">
         <v>13</v>
@@ -3140,7 +3140,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>47</v>
@@ -3155,7 +3155,7 @@
         <v>55</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H31" s="18" t="s">
         <v>13</v>
@@ -3176,7 +3176,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>47</v>
@@ -3212,7 +3212,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>47</v>
@@ -3227,7 +3227,7 @@
         <v>55</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H33" s="18" t="s">
         <v>13</v>
@@ -3248,7 +3248,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>47</v>
@@ -3263,7 +3263,7 @@
         <v>55</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H34" s="18" t="s">
         <v>13</v>
@@ -3284,7 +3284,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>47</v>
@@ -3299,7 +3299,7 @@
         <v>55</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H35" s="18" t="s">
         <v>13</v>
@@ -3320,7 +3320,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>47</v>
@@ -3335,7 +3335,7 @@
         <v>55</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H36" s="18" t="s">
         <v>13</v>
@@ -3356,7 +3356,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C37" s="26" t="s">
         <v>47</v>
@@ -3371,7 +3371,7 @@
         <v>55</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H37" s="18" t="s">
         <v>13</v>
@@ -3392,7 +3392,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C38" s="26" t="s">
         <v>48</v>
@@ -3407,7 +3407,7 @@
         <v>55</v>
       </c>
       <c r="G38" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H38" s="18" t="s">
         <v>13</v>
@@ -3428,7 +3428,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>48</v>
@@ -3443,7 +3443,7 @@
         <v>55</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H39" s="18" t="s">
         <v>13</v>
@@ -3464,7 +3464,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>48</v>
@@ -3479,7 +3479,7 @@
         <v>55</v>
       </c>
       <c r="G40" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H40" s="18" t="s">
         <v>13</v>
@@ -3500,7 +3500,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>48</v>
@@ -3515,7 +3515,7 @@
         <v>55</v>
       </c>
       <c r="G41" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H41" s="18" t="s">
         <v>13</v>
@@ -3536,7 +3536,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>48</v>
@@ -3551,7 +3551,7 @@
         <v>55</v>
       </c>
       <c r="G42" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H42" s="18" t="s">
         <v>13</v>
@@ -3572,7 +3572,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>48</v>
@@ -3587,7 +3587,7 @@
         <v>55</v>
       </c>
       <c r="G43" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H43" s="18" t="s">
         <v>13</v>
@@ -3608,7 +3608,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>48</v>
@@ -3623,7 +3623,7 @@
         <v>55</v>
       </c>
       <c r="G44" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H44" s="18" t="s">
         <v>13</v>
@@ -3644,7 +3644,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>48</v>
@@ -3659,7 +3659,7 @@
         <v>55</v>
       </c>
       <c r="G45" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H45" s="18" t="s">
         <v>13</v>
@@ -3680,7 +3680,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>48</v>
@@ -3695,7 +3695,7 @@
         <v>55</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H46" s="18" t="s">
         <v>13</v>
@@ -3716,7 +3716,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>48</v>
@@ -3752,7 +3752,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>48</v>
@@ -3767,7 +3767,7 @@
         <v>55</v>
       </c>
       <c r="G48" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H48" s="18" t="s">
         <v>13</v>
@@ -3788,7 +3788,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>48</v>
@@ -3803,7 +3803,7 @@
         <v>55</v>
       </c>
       <c r="G49" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H49" s="18" t="s">
         <v>13</v>
@@ -3824,7 +3824,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>48</v>
@@ -3839,7 +3839,7 @@
         <v>55</v>
       </c>
       <c r="G50" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H50" s="18" t="s">
         <v>13</v>
@@ -3860,7 +3860,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>48</v>
@@ -3875,7 +3875,7 @@
         <v>55</v>
       </c>
       <c r="G51" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H51" s="18" t="s">
         <v>13</v>
@@ -3896,7 +3896,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>48</v>
@@ -3911,7 +3911,7 @@
         <v>55</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H52" s="18" t="s">
         <v>13</v>
@@ -3932,7 +3932,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>49</v>
@@ -3947,7 +3947,7 @@
         <v>55</v>
       </c>
       <c r="G53" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H53" s="18" t="s">
         <v>13</v>
@@ -3968,7 +3968,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>49</v>
@@ -3983,7 +3983,7 @@
         <v>55</v>
       </c>
       <c r="G54" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H54" s="18" t="s">
         <v>13</v>
@@ -4004,7 +4004,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>49</v>
@@ -4019,7 +4019,7 @@
         <v>55</v>
       </c>
       <c r="G55" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H55" s="18" t="s">
         <v>13</v>
@@ -4040,7 +4040,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>49</v>
@@ -4055,7 +4055,7 @@
         <v>55</v>
       </c>
       <c r="G56" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H56" s="18" t="s">
         <v>13</v>
@@ -4076,7 +4076,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>49</v>
@@ -4091,7 +4091,7 @@
         <v>55</v>
       </c>
       <c r="G57" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H57" s="18" t="s">
         <v>13</v>
@@ -4112,7 +4112,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>49</v>
@@ -4127,7 +4127,7 @@
         <v>55</v>
       </c>
       <c r="G58" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H58" s="18" t="s">
         <v>13</v>
@@ -4148,7 +4148,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>49</v>
@@ -4163,7 +4163,7 @@
         <v>55</v>
       </c>
       <c r="G59" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H59" s="18" t="s">
         <v>13</v>
@@ -4184,7 +4184,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>49</v>
@@ -4199,7 +4199,7 @@
         <v>55</v>
       </c>
       <c r="G60" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H60" s="18" t="s">
         <v>13</v>
@@ -4220,7 +4220,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>49</v>
@@ -4235,7 +4235,7 @@
         <v>55</v>
       </c>
       <c r="G61" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H61" s="18" t="s">
         <v>13</v>
@@ -4256,7 +4256,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>49</v>
@@ -4292,7 +4292,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>49</v>
@@ -4307,7 +4307,7 @@
         <v>55</v>
       </c>
       <c r="G63" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H63" s="18" t="s">
         <v>13</v>
@@ -4328,7 +4328,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>49</v>
@@ -4343,7 +4343,7 @@
         <v>55</v>
       </c>
       <c r="G64" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H64" s="18" t="s">
         <v>13</v>
@@ -4364,7 +4364,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>49</v>
@@ -4379,7 +4379,7 @@
         <v>55</v>
       </c>
       <c r="G65" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H65" s="18" t="s">
         <v>13</v>
@@ -4400,7 +4400,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C66" s="12" t="s">
         <v>49</v>
@@ -4415,7 +4415,7 @@
         <v>55</v>
       </c>
       <c r="G66" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H66" s="18" t="s">
         <v>13</v>
@@ -4436,7 +4436,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>49</v>
@@ -4451,7 +4451,7 @@
         <v>55</v>
       </c>
       <c r="G67" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H67" s="18" t="s">
         <v>13</v>
@@ -4472,7 +4472,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C68" s="12" t="s">
         <v>50</v>
@@ -4487,7 +4487,7 @@
         <v>55</v>
       </c>
       <c r="G68" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H68" s="18" t="s">
         <v>13</v>
@@ -4508,7 +4508,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C69" s="12" t="s">
         <v>50</v>
@@ -4523,7 +4523,7 @@
         <v>55</v>
       </c>
       <c r="G69" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H69" s="18" t="s">
         <v>13</v>
@@ -4544,7 +4544,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C70" s="12" t="s">
         <v>50</v>
@@ -4559,7 +4559,7 @@
         <v>55</v>
       </c>
       <c r="G70" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H70" s="18" t="s">
         <v>13</v>
@@ -4580,7 +4580,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="12" t="s">
         <v>50</v>
@@ -4595,7 +4595,7 @@
         <v>55</v>
       </c>
       <c r="G71" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H71" s="18" t="s">
         <v>13</v>
@@ -4616,7 +4616,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C72" s="12" t="s">
         <v>50</v>
@@ -4631,7 +4631,7 @@
         <v>55</v>
       </c>
       <c r="G72" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H72" s="18" t="s">
         <v>13</v>
@@ -4652,7 +4652,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C73" s="12" t="s">
         <v>50</v>
@@ -4667,7 +4667,7 @@
         <v>55</v>
       </c>
       <c r="G73" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H73" s="18" t="s">
         <v>13</v>
@@ -4688,7 +4688,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C74" s="12" t="s">
         <v>50</v>
@@ -4703,7 +4703,7 @@
         <v>55</v>
       </c>
       <c r="G74" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H74" s="18" t="s">
         <v>13</v>
@@ -4724,7 +4724,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C75" s="12" t="s">
         <v>50</v>
@@ -4739,7 +4739,7 @@
         <v>55</v>
       </c>
       <c r="G75" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H75" s="18" t="s">
         <v>13</v>
@@ -4760,7 +4760,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C76" s="12" t="s">
         <v>50</v>
@@ -4775,7 +4775,7 @@
         <v>55</v>
       </c>
       <c r="G76" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H76" s="18" t="s">
         <v>13</v>
@@ -4796,7 +4796,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C77" s="12" t="s">
         <v>50</v>
@@ -4832,7 +4832,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C78" s="12" t="s">
         <v>50</v>
@@ -4847,7 +4847,7 @@
         <v>55</v>
       </c>
       <c r="G78" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H78" s="18" t="s">
         <v>13</v>
@@ -4868,7 +4868,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C79" s="12" t="s">
         <v>50</v>
@@ -4883,7 +4883,7 @@
         <v>55</v>
       </c>
       <c r="G79" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H79" s="18" t="s">
         <v>13</v>
@@ -4904,7 +4904,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C80" s="12" t="s">
         <v>50</v>
@@ -4919,7 +4919,7 @@
         <v>55</v>
       </c>
       <c r="G80" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H80" s="18" t="s">
         <v>13</v>
@@ -4940,7 +4940,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C81" s="12" t="s">
         <v>50</v>
@@ -4955,7 +4955,7 @@
         <v>55</v>
       </c>
       <c r="G81" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H81" s="18" t="s">
         <v>13</v>
@@ -4976,7 +4976,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C82" s="12" t="s">
         <v>50</v>
@@ -4991,7 +4991,7 @@
         <v>55</v>
       </c>
       <c r="G82" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H82" s="18" t="s">
         <v>13</v>
@@ -5012,7 +5012,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C83" s="12" t="s">
         <v>45</v>
@@ -5027,7 +5027,7 @@
         <v>55</v>
       </c>
       <c r="G83" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H83" s="18" t="s">
         <v>13</v>
@@ -5048,7 +5048,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C84" s="12" t="s">
         <v>45</v>
@@ -5063,7 +5063,7 @@
         <v>55</v>
       </c>
       <c r="G84" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H84" s="18" t="s">
         <v>13</v>
@@ -5084,7 +5084,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C85" s="12" t="s">
         <v>45</v>
@@ -5099,7 +5099,7 @@
         <v>55</v>
       </c>
       <c r="G85" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H85" s="18" t="s">
         <v>13</v>
@@ -5120,7 +5120,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C86" s="12" t="s">
         <v>45</v>
@@ -5135,7 +5135,7 @@
         <v>55</v>
       </c>
       <c r="G86" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H86" s="18" t="s">
         <v>13</v>
@@ -5156,7 +5156,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C87" s="12" t="s">
         <v>45</v>
@@ -5171,7 +5171,7 @@
         <v>55</v>
       </c>
       <c r="G87" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H87" s="18" t="s">
         <v>13</v>
@@ -5192,7 +5192,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C88" s="12" t="s">
         <v>45</v>
@@ -5207,7 +5207,7 @@
         <v>55</v>
       </c>
       <c r="G88" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H88" s="18" t="s">
         <v>13</v>
@@ -5228,7 +5228,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C89" s="12" t="s">
         <v>45</v>
@@ -5243,7 +5243,7 @@
         <v>55</v>
       </c>
       <c r="G89" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H89" s="18" t="s">
         <v>13</v>
@@ -5264,7 +5264,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C90" s="12" t="s">
         <v>45</v>
@@ -5279,7 +5279,7 @@
         <v>55</v>
       </c>
       <c r="G90" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H90" s="18" t="s">
         <v>13</v>
@@ -5300,7 +5300,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C91" s="12" t="s">
         <v>45</v>
@@ -5315,7 +5315,7 @@
         <v>55</v>
       </c>
       <c r="G91" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H91" s="18" t="s">
         <v>13</v>
@@ -5336,7 +5336,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C92" s="12" t="s">
         <v>45</v>
@@ -5372,7 +5372,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C93" s="12" t="s">
         <v>45</v>
@@ -5387,7 +5387,7 @@
         <v>55</v>
       </c>
       <c r="G93" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H93" s="18" t="s">
         <v>13</v>
@@ -5408,7 +5408,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C94" s="12" t="s">
         <v>45</v>
@@ -5423,7 +5423,7 @@
         <v>55</v>
       </c>
       <c r="G94" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H94" s="18" t="s">
         <v>13</v>
@@ -5444,7 +5444,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C95" s="12" t="s">
         <v>45</v>
@@ -5459,7 +5459,7 @@
         <v>55</v>
       </c>
       <c r="G95" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H95" s="18" t="s">
         <v>13</v>
@@ -5480,7 +5480,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C96" s="12" t="s">
         <v>45</v>
@@ -5495,7 +5495,7 @@
         <v>55</v>
       </c>
       <c r="G96" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H96" s="18" t="s">
         <v>13</v>
@@ -5516,7 +5516,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C97" s="12" t="s">
         <v>45</v>
@@ -5531,7 +5531,7 @@
         <v>55</v>
       </c>
       <c r="G97" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H97" s="18" t="s">
         <v>13</v>

--- a/Onto_HidroSanitário/Ontologia_V1_Projeto_HidroSanitário.xlsx
+++ b/Onto_HidroSanitário/Ontologia_V1_Projeto_HidroSanitário.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ABNT_Normas\ABNT\Onto_Projeto_HidroSanitário\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56A61C6-87C3-4BD5-928F-4DF0ED07ADF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3ACA7D-B8D2-4283-9850-E8FEBACBBC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -240,30 +240,6 @@
     <t>hsa:</t>
   </si>
   <si>
-    <t>ESGP.ID.900108</t>
-  </si>
-  <si>
-    <t>ESGP.ID.900109</t>
-  </si>
-  <si>
-    <t>ESGP.ID.900110</t>
-  </si>
-  <si>
-    <t>ESGP.ID.900111</t>
-  </si>
-  <si>
-    <t>ESGP.ID.900112</t>
-  </si>
-  <si>
-    <t>ESGP.ID.900113</t>
-  </si>
-  <si>
-    <t>ESGP.ID.900114</t>
-  </si>
-  <si>
-    <t>ESGS.ID.910108</t>
-  </si>
-  <si>
     <t>ESGS.ID.910109</t>
   </si>
   <si>
@@ -282,69 +258,6 @@
     <t>ESGS.ID.910114</t>
   </si>
   <si>
-    <t>VENT.ID.920100</t>
-  </si>
-  <si>
-    <t>VENT.ID.920108</t>
-  </si>
-  <si>
-    <t>VENT.ID.920109</t>
-  </si>
-  <si>
-    <t>VENT.ID.920110</t>
-  </si>
-  <si>
-    <t>VENT.ID.920111</t>
-  </si>
-  <si>
-    <t>VENT.ID.920112</t>
-  </si>
-  <si>
-    <t>VENT.ID.920113</t>
-  </si>
-  <si>
-    <t>AF.ID.100108</t>
-  </si>
-  <si>
-    <t>AF.ID.100109</t>
-  </si>
-  <si>
-    <t>AF.ID.100110</t>
-  </si>
-  <si>
-    <t>AF.ID.100111</t>
-  </si>
-  <si>
-    <t>AF.ID.100112</t>
-  </si>
-  <si>
-    <t>AF.ID.100113</t>
-  </si>
-  <si>
-    <t>AF.ID.100114</t>
-  </si>
-  <si>
-    <t>AQ.ID.200108</t>
-  </si>
-  <si>
-    <t>AQ.ID.200109</t>
-  </si>
-  <si>
-    <t>AQ.ID.200110</t>
-  </si>
-  <si>
-    <t>AQ.ID.200111</t>
-  </si>
-  <si>
-    <t>AQ.ID.200112</t>
-  </si>
-  <si>
-    <t>AQ.ID.200113</t>
-  </si>
-  <si>
-    <t>AQ.ID.200114</t>
-  </si>
-  <si>
     <t>tem.sistema</t>
   </si>
   <si>
@@ -391,6 +304,93 @@
   </si>
   <si>
     <t>VentilaçãoEsgoto</t>
+  </si>
+  <si>
+    <t>AF01.ID.100108</t>
+  </si>
+  <si>
+    <t>AF01.ID.100109</t>
+  </si>
+  <si>
+    <t>AF01.ID.100110</t>
+  </si>
+  <si>
+    <t>AF01.ID.100111</t>
+  </si>
+  <si>
+    <t>AF01.ID.100112</t>
+  </si>
+  <si>
+    <t>AF01.ID.100113</t>
+  </si>
+  <si>
+    <t>AF01.ID.100114</t>
+  </si>
+  <si>
+    <t>AQ01.ID.200108</t>
+  </si>
+  <si>
+    <t>AQ01.ID.200109</t>
+  </si>
+  <si>
+    <t>AQ01.ID.200110</t>
+  </si>
+  <si>
+    <t>AQ01.ID.200111</t>
+  </si>
+  <si>
+    <t>AQ01.ID.200112</t>
+  </si>
+  <si>
+    <t>AQ01.ID.200113</t>
+  </si>
+  <si>
+    <t>AQ01.ID.200114</t>
+  </si>
+  <si>
+    <t>ESGP01.ID.900108</t>
+  </si>
+  <si>
+    <t>ESGP01.ID.900109</t>
+  </si>
+  <si>
+    <t>ESGP01.ID.900110</t>
+  </si>
+  <si>
+    <t>ESGP01.ID.900111</t>
+  </si>
+  <si>
+    <t>ESGP01.ID.900112</t>
+  </si>
+  <si>
+    <t>ESGP01.ID.900113</t>
+  </si>
+  <si>
+    <t>ESGP01.ID.900114</t>
+  </si>
+  <si>
+    <t>ESGS01.ID.910108</t>
+  </si>
+  <si>
+    <t>VENT01.ID.920100</t>
+  </si>
+  <si>
+    <t>VENT01.ID.920101</t>
+  </si>
+  <si>
+    <t>VENT01.ID.920102</t>
+  </si>
+  <si>
+    <t>VENT01.ID.920103</t>
+  </si>
+  <si>
+    <t>VENT01.ID.920104</t>
+  </si>
+  <si>
+    <t>VENT01.ID.920105</t>
+  </si>
+  <si>
+    <t>VENT01.ID.920106</t>
   </si>
 </sst>
 </file>
@@ -648,7 +648,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="128">
+  <dxfs count="83">
     <dxf>
       <font>
         <b val="0"/>
@@ -691,796 +691,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i/>
         <strike val="0"/>
@@ -1489,86 +699,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i/>
         <strike val="0"/>
@@ -1585,76 +715,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i/>
         <strike val="0"/>
@@ -1663,126 +723,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i/>
         <strike val="0"/>
@@ -1791,26 +731,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i/>
         <strike val="0"/>
@@ -1819,6 +739,306 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i/>
         <strike val="0"/>
@@ -1827,65 +1047,401 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2360,7 +1916,7 @@
       </c>
       <c r="B17" s="12">
         <f ca="1">NOW()</f>
-        <v>45381.611806018518</v>
+        <v>45381.702272337963</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2373,10 +1929,10 @@
     </row>
     <row r="19" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2391,7 +1947,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:G1048576"/>
+      <selection pane="bottomLeft" activeCell="B53" sqref="B53:B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2490,10 +2046,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>13</v>
@@ -3138,10 +2694,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>13</v>
@@ -3714,16 +3270,16 @@
         <v>19</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>49</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>13</v>
@@ -3750,7 +3306,7 @@
         <v>13</v>
       </c>
       <c r="N19" s="24" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="O19" s="25" t="str">
         <f>_xlfn.CONCAT("""",C19,"""")</f>
@@ -3787,16 +3343,16 @@
         <v>20</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>49</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>13</v>
@@ -3805,10 +3361,10 @@
         <v>13</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="J20" s="16" t="s">
         <v>13</v>
@@ -3823,7 +3379,7 @@
         <v>13</v>
       </c>
       <c r="N20" s="24" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="O20" s="25" t="str">
         <f t="shared" ref="O20:O59" si="5">_xlfn.CONCAT("""",C20,"""")</f>
@@ -3860,16 +3416,16 @@
         <v>21</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>49</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>13</v>
@@ -3878,10 +3434,10 @@
         <v>13</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="J21" s="16" t="s">
         <v>13</v>
@@ -3896,7 +3452,7 @@
         <v>13</v>
       </c>
       <c r="N21" s="24" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="O21" s="25" t="str">
         <f t="shared" si="5"/>
@@ -3933,16 +3489,16 @@
         <v>22</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>49</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>13</v>
@@ -3951,10 +3507,10 @@
         <v>13</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="J22" s="16" t="s">
         <v>13</v>
@@ -3969,7 +3525,7 @@
         <v>13</v>
       </c>
       <c r="N22" s="24" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="O22" s="25" t="str">
         <f t="shared" si="5"/>
@@ -4006,16 +3562,16 @@
         <v>23</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>49</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>13</v>
@@ -4024,10 +3580,10 @@
         <v>13</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="I23" s="26" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="J23" s="16" t="s">
         <v>13</v>
@@ -4042,7 +3598,7 @@
         <v>13</v>
       </c>
       <c r="N23" s="24" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="O23" s="25" t="str">
         <f t="shared" si="5"/>
@@ -4079,16 +3635,16 @@
         <v>24</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>49</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>13</v>
@@ -4097,10 +3653,10 @@
         <v>13</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="J24" s="16" t="s">
         <v>13</v>
@@ -4115,7 +3671,7 @@
         <v>13</v>
       </c>
       <c r="N24" s="24" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="O24" s="25" t="str">
         <f t="shared" si="5"/>
@@ -4152,7 +3708,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>43</v>
@@ -4170,10 +3726,10 @@
         <v>13</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="I25" s="26" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="J25" s="16" t="s">
         <v>13</v>
@@ -4188,7 +3744,7 @@
         <v>13</v>
       </c>
       <c r="N25" s="24" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="O25" s="25" t="str">
         <f t="shared" si="5"/>
@@ -4217,7 +3773,7 @@
       </c>
       <c r="W25" s="8" t="str">
         <f>_xlfn.CONCAT("""","Traçado da instalação  ",C25,": Usa o ID do elemento  ",B25,"""")</f>
-        <v>"Traçado da instalação  AguaFria: Usa o ID do elemento  AF.ID.100108"</v>
+        <v>"Traçado da instalação  AguaFria: Usa o ID do elemento  AF01.ID.100108"</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4225,7 +3781,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>43</v>
@@ -4243,10 +3799,10 @@
         <v>13</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="I26" s="26" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="J26" s="16" t="s">
         <v>13</v>
@@ -4261,7 +3817,7 @@
         <v>13</v>
       </c>
       <c r="N26" s="24" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="O26" s="25" t="str">
         <f t="shared" si="5"/>
@@ -4290,7 +3846,7 @@
       </c>
       <c r="W26" s="8" t="str">
         <f t="shared" ref="W26:W59" si="7">_xlfn.CONCAT("""","Traçado da instalação  ",C26,": Usa o ID do elemento  ",B26,"""")</f>
-        <v>"Traçado da instalação  AguaFria: Usa o ID do elemento  AF.ID.100109"</v>
+        <v>"Traçado da instalação  AguaFria: Usa o ID do elemento  AF01.ID.100109"</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4298,7 +3854,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>43</v>
@@ -4316,10 +3872,10 @@
         <v>13</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="I27" s="26" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="J27" s="16" t="s">
         <v>13</v>
@@ -4334,7 +3890,7 @@
         <v>13</v>
       </c>
       <c r="N27" s="24" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="O27" s="25" t="str">
         <f t="shared" si="5"/>
@@ -4363,7 +3919,7 @@
       </c>
       <c r="W27" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>"Traçado da instalação  AguaFria: Usa o ID do elemento  AF.ID.100110"</v>
+        <v>"Traçado da instalação  AguaFria: Usa o ID do elemento  AF01.ID.100110"</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4371,7 +3927,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>43</v>
@@ -4389,10 +3945,10 @@
         <v>13</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="J28" s="16" t="s">
         <v>13</v>
@@ -4407,7 +3963,7 @@
         <v>13</v>
       </c>
       <c r="N28" s="24" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="O28" s="25" t="str">
         <f t="shared" si="5"/>
@@ -4436,7 +3992,7 @@
       </c>
       <c r="W28" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>"Traçado da instalação  AguaFria: Usa o ID do elemento  AF.ID.100111"</v>
+        <v>"Traçado da instalação  AguaFria: Usa o ID do elemento  AF01.ID.100111"</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4444,7 +4000,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>43</v>
@@ -4462,10 +4018,10 @@
         <v>13</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="I29" s="26" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="J29" s="16" t="s">
         <v>13</v>
@@ -4480,7 +4036,7 @@
         <v>13</v>
       </c>
       <c r="N29" s="24" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="O29" s="25" t="str">
         <f t="shared" si="5"/>
@@ -4509,7 +4065,7 @@
       </c>
       <c r="W29" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>"Traçado da instalação  AguaFria: Usa o ID do elemento  AF.ID.100112"</v>
+        <v>"Traçado da instalação  AguaFria: Usa o ID do elemento  AF01.ID.100112"</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4517,7 +4073,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>43</v>
@@ -4535,10 +4091,10 @@
         <v>13</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="I30" s="26" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="J30" s="16" t="s">
         <v>13</v>
@@ -4553,7 +4109,7 @@
         <v>13</v>
       </c>
       <c r="N30" s="24" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="O30" s="25" t="str">
         <f t="shared" si="5"/>
@@ -4582,7 +4138,7 @@
       </c>
       <c r="W30" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>"Traçado da instalação  AguaFria: Usa o ID do elemento  AF.ID.100113"</v>
+        <v>"Traçado da instalação  AguaFria: Usa o ID do elemento  AF01.ID.100113"</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4590,7 +4146,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>43</v>
@@ -4608,10 +4164,10 @@
         <v>13</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="I31" s="26" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="J31" s="16" t="s">
         <v>13</v>
@@ -4626,7 +4182,7 @@
         <v>13</v>
       </c>
       <c r="N31" s="24" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="O31" s="25" t="str">
         <f t="shared" si="5"/>
@@ -4655,7 +4211,7 @@
       </c>
       <c r="W31" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>"Traçado da instalação  AguaFria: Usa o ID do elemento  AF.ID.100114"</v>
+        <v>"Traçado da instalação  AguaFria: Usa o ID do elemento  AF01.ID.100114"</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4663,7 +4219,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>44</v>
@@ -4681,10 +4237,10 @@
         <v>13</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="J32" s="16" t="s">
         <v>13</v>
@@ -4699,7 +4255,7 @@
         <v>13</v>
       </c>
       <c r="N32" s="24" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="O32" s="25" t="str">
         <f t="shared" si="5"/>
@@ -4728,7 +4284,7 @@
       </c>
       <c r="W32" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>"Traçado da instalação  AguaQuente: Usa o ID do elemento  AQ.ID.200108"</v>
+        <v>"Traçado da instalação  AguaQuente: Usa o ID do elemento  AQ01.ID.200108"</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4736,7 +4292,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>44</v>
@@ -4754,10 +4310,10 @@
         <v>13</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="I33" s="26" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="J33" s="16" t="s">
         <v>13</v>
@@ -4772,7 +4328,7 @@
         <v>13</v>
       </c>
       <c r="N33" s="24" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="O33" s="25" t="str">
         <f t="shared" si="5"/>
@@ -4801,7 +4357,7 @@
       </c>
       <c r="W33" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>"Traçado da instalação  AguaQuente: Usa o ID do elemento  AQ.ID.200109"</v>
+        <v>"Traçado da instalação  AguaQuente: Usa o ID do elemento  AQ01.ID.200109"</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4809,7 +4365,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>44</v>
@@ -4827,10 +4383,10 @@
         <v>13</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="I34" s="26" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="J34" s="16" t="s">
         <v>13</v>
@@ -4845,7 +4401,7 @@
         <v>13</v>
       </c>
       <c r="N34" s="24" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="O34" s="25" t="str">
         <f t="shared" si="5"/>
@@ -4874,7 +4430,7 @@
       </c>
       <c r="W34" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>"Traçado da instalação  AguaQuente: Usa o ID do elemento  AQ.ID.200110"</v>
+        <v>"Traçado da instalação  AguaQuente: Usa o ID do elemento  AQ01.ID.200110"</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4882,7 +4438,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>44</v>
@@ -4900,10 +4456,10 @@
         <v>13</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="I35" s="26" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="J35" s="16" t="s">
         <v>13</v>
@@ -4918,7 +4474,7 @@
         <v>13</v>
       </c>
       <c r="N35" s="24" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="O35" s="25" t="str">
         <f t="shared" si="5"/>
@@ -4947,7 +4503,7 @@
       </c>
       <c r="W35" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>"Traçado da instalação  AguaQuente: Usa o ID do elemento  AQ.ID.200111"</v>
+        <v>"Traçado da instalação  AguaQuente: Usa o ID do elemento  AQ01.ID.200111"</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4955,7 +4511,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>44</v>
@@ -4973,10 +4529,10 @@
         <v>13</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="I36" s="26" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="J36" s="16" t="s">
         <v>13</v>
@@ -4991,7 +4547,7 @@
         <v>13</v>
       </c>
       <c r="N36" s="24" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="O36" s="25" t="str">
         <f t="shared" si="5"/>
@@ -5020,7 +4576,7 @@
       </c>
       <c r="W36" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>"Traçado da instalação  AguaQuente: Usa o ID do elemento  AQ.ID.200112"</v>
+        <v>"Traçado da instalação  AguaQuente: Usa o ID do elemento  AQ01.ID.200112"</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5028,7 +4584,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>44</v>
@@ -5046,10 +4602,10 @@
         <v>13</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="I37" s="26" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="J37" s="16" t="s">
         <v>13</v>
@@ -5064,7 +4620,7 @@
         <v>13</v>
       </c>
       <c r="N37" s="24" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="O37" s="25" t="str">
         <f t="shared" si="5"/>
@@ -5093,7 +4649,7 @@
       </c>
       <c r="W37" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>"Traçado da instalação  AguaQuente: Usa o ID do elemento  AQ.ID.200113"</v>
+        <v>"Traçado da instalação  AguaQuente: Usa o ID do elemento  AQ01.ID.200113"</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5101,7 +4657,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>44</v>
@@ -5119,10 +4675,10 @@
         <v>13</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="I38" s="26" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="J38" s="16" t="s">
         <v>13</v>
@@ -5137,7 +4693,7 @@
         <v>13</v>
       </c>
       <c r="N38" s="24" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="O38" s="25" t="str">
         <f t="shared" si="5"/>
@@ -5166,7 +4722,7 @@
       </c>
       <c r="W38" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>"Traçado da instalação  AguaQuente: Usa o ID do elemento  AQ.ID.200114"</v>
+        <v>"Traçado da instalação  AguaQuente: Usa o ID do elemento  AQ01.ID.200114"</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5174,7 +4730,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>45</v>
@@ -5192,10 +4748,10 @@
         <v>13</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="I39" s="26" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="J39" s="16" t="s">
         <v>13</v>
@@ -5210,7 +4766,7 @@
         <v>13</v>
       </c>
       <c r="N39" s="24" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="O39" s="25" t="str">
         <f t="shared" si="5"/>
@@ -5239,7 +4795,7 @@
       </c>
       <c r="W39" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>"Traçado da instalação  EsgotoPrimário: Usa o ID do elemento  ESGP.ID.900108"</v>
+        <v>"Traçado da instalação  EsgotoPrimário: Usa o ID do elemento  ESGP01.ID.900108"</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5247,7 +4803,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>45</v>
@@ -5265,10 +4821,10 @@
         <v>13</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="I40" s="26" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="J40" s="16" t="s">
         <v>13</v>
@@ -5283,7 +4839,7 @@
         <v>13</v>
       </c>
       <c r="N40" s="24" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="O40" s="25" t="str">
         <f t="shared" si="5"/>
@@ -5312,7 +4868,7 @@
       </c>
       <c r="W40" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>"Traçado da instalação  EsgotoPrimário: Usa o ID do elemento  ESGP.ID.900109"</v>
+        <v>"Traçado da instalação  EsgotoPrimário: Usa o ID do elemento  ESGP01.ID.900109"</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5320,7 +4876,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>45</v>
@@ -5338,10 +4894,10 @@
         <v>13</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="I41" s="26" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="J41" s="16" t="s">
         <v>13</v>
@@ -5356,7 +4912,7 @@
         <v>13</v>
       </c>
       <c r="N41" s="24" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="O41" s="25" t="str">
         <f t="shared" si="5"/>
@@ -5385,7 +4941,7 @@
       </c>
       <c r="W41" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>"Traçado da instalação  EsgotoPrimário: Usa o ID do elemento  ESGP.ID.900110"</v>
+        <v>"Traçado da instalação  EsgotoPrimário: Usa o ID do elemento  ESGP01.ID.900110"</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5393,7 +4949,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>45</v>
@@ -5411,10 +4967,10 @@
         <v>13</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="I42" s="26" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="J42" s="16" t="s">
         <v>13</v>
@@ -5429,7 +4985,7 @@
         <v>13</v>
       </c>
       <c r="N42" s="24" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="O42" s="25" t="str">
         <f t="shared" si="5"/>
@@ -5458,7 +5014,7 @@
       </c>
       <c r="W42" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>"Traçado da instalação  EsgotoPrimário: Usa o ID do elemento  ESGP.ID.900111"</v>
+        <v>"Traçado da instalação  EsgotoPrimário: Usa o ID do elemento  ESGP01.ID.900111"</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5466,7 +5022,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>45</v>
@@ -5484,10 +5040,10 @@
         <v>13</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="I43" s="26" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="J43" s="16" t="s">
         <v>13</v>
@@ -5502,7 +5058,7 @@
         <v>13</v>
       </c>
       <c r="N43" s="24" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="O43" s="25" t="str">
         <f t="shared" si="5"/>
@@ -5531,7 +5087,7 @@
       </c>
       <c r="W43" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>"Traçado da instalação  EsgotoPrimário: Usa o ID do elemento  ESGP.ID.900112"</v>
+        <v>"Traçado da instalação  EsgotoPrimário: Usa o ID do elemento  ESGP01.ID.900112"</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5539,7 +5095,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>45</v>
@@ -5557,10 +5113,10 @@
         <v>13</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="I44" s="26" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="J44" s="16" t="s">
         <v>13</v>
@@ -5575,7 +5131,7 @@
         <v>13</v>
       </c>
       <c r="N44" s="24" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="O44" s="25" t="str">
         <f t="shared" si="5"/>
@@ -5604,7 +5160,7 @@
       </c>
       <c r="W44" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>"Traçado da instalação  EsgotoPrimário: Usa o ID do elemento  ESGP.ID.900113"</v>
+        <v>"Traçado da instalação  EsgotoPrimário: Usa o ID do elemento  ESGP01.ID.900113"</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5612,7 +5168,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>45</v>
@@ -5630,10 +5186,10 @@
         <v>13</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="I45" s="26" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="J45" s="16" t="s">
         <v>13</v>
@@ -5648,7 +5204,7 @@
         <v>13</v>
       </c>
       <c r="N45" s="24" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="O45" s="25" t="str">
         <f t="shared" si="5"/>
@@ -5677,7 +5233,7 @@
       </c>
       <c r="W45" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>"Traçado da instalação  EsgotoPrimário: Usa o ID do elemento  ESGP.ID.900114"</v>
+        <v>"Traçado da instalação  EsgotoPrimário: Usa o ID do elemento  ESGP01.ID.900114"</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5685,7 +5241,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>46</v>
@@ -5703,10 +5259,10 @@
         <v>13</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="I46" s="26" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="J46" s="16" t="s">
         <v>13</v>
@@ -5721,7 +5277,7 @@
         <v>13</v>
       </c>
       <c r="N46" s="24" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="O46" s="25" t="str">
         <f t="shared" si="5"/>
@@ -5750,7 +5306,7 @@
       </c>
       <c r="W46" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>"Traçado da instalação  EsgotoSecundário: Usa o ID do elemento  ESGS.ID.910108"</v>
+        <v>"Traçado da instalação  EsgotoSecundário: Usa o ID do elemento  ESGS01.ID.910108"</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5758,7 +5314,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>46</v>
@@ -5776,10 +5332,10 @@
         <v>13</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="I47" s="26" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="J47" s="16" t="s">
         <v>13</v>
@@ -5794,7 +5350,7 @@
         <v>13</v>
       </c>
       <c r="N47" s="24" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="O47" s="25" t="str">
         <f t="shared" si="5"/>
@@ -5831,7 +5387,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>46</v>
@@ -5849,10 +5405,10 @@
         <v>13</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="I48" s="26" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="J48" s="16" t="s">
         <v>13</v>
@@ -5867,7 +5423,7 @@
         <v>13</v>
       </c>
       <c r="N48" s="24" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="O48" s="25" t="str">
         <f t="shared" si="5"/>
@@ -5904,7 +5460,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>46</v>
@@ -5922,10 +5478,10 @@
         <v>13</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="I49" s="26" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="J49" s="16" t="s">
         <v>13</v>
@@ -5940,7 +5496,7 @@
         <v>13</v>
       </c>
       <c r="N49" s="24" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="O49" s="25" t="str">
         <f t="shared" si="5"/>
@@ -5977,7 +5533,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>46</v>
@@ -5995,10 +5551,10 @@
         <v>13</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="I50" s="26" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="J50" s="16" t="s">
         <v>13</v>
@@ -6013,7 +5569,7 @@
         <v>13</v>
       </c>
       <c r="N50" s="24" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="O50" s="25" t="str">
         <f t="shared" si="5"/>
@@ -6050,7 +5606,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>46</v>
@@ -6068,10 +5624,10 @@
         <v>13</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="I51" s="26" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="J51" s="16" t="s">
         <v>13</v>
@@ -6086,7 +5642,7 @@
         <v>13</v>
       </c>
       <c r="N51" s="24" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="O51" s="25" t="str">
         <f t="shared" si="5"/>
@@ -6123,7 +5679,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>46</v>
@@ -6141,10 +5697,10 @@
         <v>13</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="I52" s="26" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="J52" s="16" t="s">
         <v>13</v>
@@ -6159,7 +5715,7 @@
         <v>13</v>
       </c>
       <c r="N52" s="24" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="O52" s="25" t="str">
         <f t="shared" si="5"/>
@@ -6196,10 +5752,10 @@
         <v>53</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="D53" s="16" t="s">
         <v>49</v>
@@ -6214,10 +5770,10 @@
         <v>13</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="I53" s="26" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="J53" s="16" t="s">
         <v>13</v>
@@ -6232,7 +5788,7 @@
         <v>13</v>
       </c>
       <c r="N53" s="24" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="O53" s="25" t="str">
         <f t="shared" si="5"/>
@@ -6261,7 +5817,7 @@
       </c>
       <c r="W53" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>"Traçado da instalação  VentilaçãoEsgoto: Usa o ID do elemento  VENT.ID.920100"</v>
+        <v>"Traçado da instalação  VentilaçãoEsgoto: Usa o ID do elemento  VENT01.ID.920100"</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6269,10 +5825,10 @@
         <v>54</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="D54" s="16" t="s">
         <v>49</v>
@@ -6287,10 +5843,10 @@
         <v>13</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="I54" s="26" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="J54" s="16" t="s">
         <v>13</v>
@@ -6305,7 +5861,7 @@
         <v>13</v>
       </c>
       <c r="N54" s="24" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="O54" s="25" t="str">
         <f t="shared" si="5"/>
@@ -6334,7 +5890,7 @@
       </c>
       <c r="W54" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>"Traçado da instalação  VentilaçãoEsgoto: Usa o ID do elemento  VENT.ID.920108"</v>
+        <v>"Traçado da instalação  VentilaçãoEsgoto: Usa o ID do elemento  VENT01.ID.920101"</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6342,10 +5898,10 @@
         <v>55</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="D55" s="16" t="s">
         <v>49</v>
@@ -6360,10 +5916,10 @@
         <v>13</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="I55" s="26" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="J55" s="16" t="s">
         <v>13</v>
@@ -6378,7 +5934,7 @@
         <v>13</v>
       </c>
       <c r="N55" s="24" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="O55" s="25" t="str">
         <f t="shared" si="5"/>
@@ -6407,7 +5963,7 @@
       </c>
       <c r="W55" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>"Traçado da instalação  VentilaçãoEsgoto: Usa o ID do elemento  VENT.ID.920109"</v>
+        <v>"Traçado da instalação  VentilaçãoEsgoto: Usa o ID do elemento  VENT01.ID.920102"</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6415,10 +5971,10 @@
         <v>56</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="D56" s="16" t="s">
         <v>49</v>
@@ -6433,10 +5989,10 @@
         <v>13</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="I56" s="26" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="J56" s="16" t="s">
         <v>13</v>
@@ -6451,7 +6007,7 @@
         <v>13</v>
       </c>
       <c r="N56" s="24" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="O56" s="25" t="str">
         <f t="shared" si="5"/>
@@ -6480,7 +6036,7 @@
       </c>
       <c r="W56" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>"Traçado da instalação  VentilaçãoEsgoto: Usa o ID do elemento  VENT.ID.920110"</v>
+        <v>"Traçado da instalação  VentilaçãoEsgoto: Usa o ID do elemento  VENT01.ID.920103"</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6488,10 +6044,10 @@
         <v>57</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="D57" s="16" t="s">
         <v>49</v>
@@ -6506,10 +6062,10 @@
         <v>13</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="I57" s="26" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="J57" s="16" t="s">
         <v>13</v>
@@ -6524,7 +6080,7 @@
         <v>13</v>
       </c>
       <c r="N57" s="24" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="O57" s="25" t="str">
         <f t="shared" si="5"/>
@@ -6553,7 +6109,7 @@
       </c>
       <c r="W57" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>"Traçado da instalação  VentilaçãoEsgoto: Usa o ID do elemento  VENT.ID.920111"</v>
+        <v>"Traçado da instalação  VentilaçãoEsgoto: Usa o ID do elemento  VENT01.ID.920104"</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6561,10 +6117,10 @@
         <v>58</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="D58" s="16" t="s">
         <v>49</v>
@@ -6579,10 +6135,10 @@
         <v>13</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="I58" s="26" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="J58" s="16" t="s">
         <v>13</v>
@@ -6597,7 +6153,7 @@
         <v>13</v>
       </c>
       <c r="N58" s="24" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="O58" s="25" t="str">
         <f t="shared" si="5"/>
@@ -6626,7 +6182,7 @@
       </c>
       <c r="W58" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>"Traçado da instalação  VentilaçãoEsgoto: Usa o ID do elemento  VENT.ID.920112"</v>
+        <v>"Traçado da instalação  VentilaçãoEsgoto: Usa o ID do elemento  VENT01.ID.920105"</v>
       </c>
     </row>
     <row r="59" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6634,10 +6190,10 @@
         <v>59</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="D59" s="16" t="s">
         <v>49</v>
@@ -6652,10 +6208,10 @@
         <v>13</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="I59" s="26" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="J59" s="16" t="s">
         <v>13</v>
@@ -6670,7 +6226,7 @@
         <v>13</v>
       </c>
       <c r="N59" s="24" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="O59" s="25" t="str">
         <f t="shared" si="5"/>
@@ -6699,7 +6255,7 @@
       </c>
       <c r="W59" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>"Traçado da instalação  VentilaçãoEsgoto: Usa o ID do elemento  VENT.ID.920113"</v>
+        <v>"Traçado da instalação  VentilaçãoEsgoto: Usa o ID do elemento  VENT01.ID.920106"</v>
       </c>
     </row>
   </sheetData>
@@ -6707,171 +6263,151 @@
     <sortCondition ref="B1:B18"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A1:B1 D1 X1:XFD1 A60:B1048576 D2:XFD3 F60:F1048576 J4:XFD5 D5:I5 A2:A18 D6:XFD18 D60:D1048576 X60:XFD1048576">
-    <cfRule type="cellIs" dxfId="127" priority="512" operator="equal">
+  <conditionalFormatting sqref="A2:A59 J20:XFD59 D20:D1048576 F25:H59">
+    <cfRule type="cellIs" dxfId="82" priority="81" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A1:B1 D1 X1:XFD1 A60:B1048576 F60:F1048576 X60:XFD1048576">
+    <cfRule type="cellIs" dxfId="81" priority="512" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B18">
+    <cfRule type="duplicateValues" dxfId="80" priority="4596"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="4595"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="4594"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="4592"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="4593"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B18">
+    <cfRule type="duplicateValues" dxfId="75" priority="4602"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="duplicateValues" dxfId="74" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="99"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:B24">
+    <cfRule type="duplicateValues" dxfId="67" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="80"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:B59">
+    <cfRule type="duplicateValues" dxfId="60" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="82"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:B38 B26:B31">
+    <cfRule type="duplicateValues" dxfId="53" priority="72"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B60:B1048576 B1">
-    <cfRule type="duplicateValues" dxfId="126" priority="4172"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="4172"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:C2">
+    <cfRule type="duplicateValues" dxfId="51" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3">
-    <cfRule type="duplicateValues" dxfId="125" priority="500"/>
-    <cfRule type="duplicateValues" dxfId="124" priority="501"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="500"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="501"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C18">
+    <cfRule type="duplicateValues" dxfId="47" priority="4605"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="4606"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="4607"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="4608"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="4604"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C18">
+    <cfRule type="duplicateValues" dxfId="42" priority="4614"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:XFD19">
+    <cfRule type="cellIs" dxfId="41" priority="95" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25:E31">
+    <cfRule type="duplicateValues" dxfId="40" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="93"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:E38">
+    <cfRule type="duplicateValues" dxfId="34" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="69"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39:E45">
+    <cfRule type="duplicateValues" dxfId="28" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:E52">
+    <cfRule type="duplicateValues" dxfId="22" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53:E59">
+    <cfRule type="duplicateValues" dxfId="16" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20:H24">
+    <cfRule type="cellIs" dxfId="10" priority="73" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="123" priority="510" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="510" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1">
+    <cfRule type="cellIs" dxfId="8" priority="254" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H60:I1048576">
+    <cfRule type="cellIs" dxfId="7" priority="253" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="122" priority="509" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="509" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L60:V1048576">
-    <cfRule type="cellIs" dxfId="121" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="256" operator="equal">
       <formula>"null"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="119" priority="254" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H60:I1048576">
-    <cfRule type="cellIs" dxfId="118" priority="253" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C2">
-    <cfRule type="duplicateValues" dxfId="117" priority="200"/>
-    <cfRule type="duplicateValues" dxfId="116" priority="201"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4:I4">
-    <cfRule type="cellIs" dxfId="115" priority="167" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B18">
-    <cfRule type="duplicateValues" dxfId="114" priority="4592"/>
-    <cfRule type="duplicateValues" dxfId="113" priority="4593"/>
-    <cfRule type="duplicateValues" dxfId="112" priority="4594"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="4595"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="4596"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B18">
-    <cfRule type="duplicateValues" dxfId="109" priority="4602"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C18">
-    <cfRule type="duplicateValues" dxfId="108" priority="4604"/>
-    <cfRule type="duplicateValues" dxfId="107" priority="4605"/>
-    <cfRule type="duplicateValues" dxfId="106" priority="4606"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="4607"/>
-    <cfRule type="duplicateValues" dxfId="104" priority="4608"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C18">
-    <cfRule type="duplicateValues" dxfId="103" priority="4614"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19:XFD19 A19 D19 O20:O59">
-    <cfRule type="cellIs" dxfId="102" priority="103" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="101" priority="96"/>
-    <cfRule type="duplicateValues" dxfId="100" priority="97"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="98"/>
-    <cfRule type="duplicateValues" dxfId="98" priority="99"/>
-    <cfRule type="duplicateValues" dxfId="97" priority="100"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="101"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="102"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19:G19">
-    <cfRule type="cellIs" dxfId="94" priority="95" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20:H24 F25:H59 A20:A59 D20:D59 J20:N59 P20:XFD59">
-    <cfRule type="cellIs" dxfId="93" priority="81" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20:B24">
-    <cfRule type="duplicateValues" dxfId="92" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="91" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="76"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="77"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="78"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="79"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="80"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33:B38 B26:B31">
-    <cfRule type="duplicateValues" dxfId="85" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20:G24">
-    <cfRule type="cellIs" dxfId="84" priority="73" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32:E38">
-    <cfRule type="duplicateValues" dxfId="83" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="70"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32:E38">
-    <cfRule type="duplicateValues" dxfId="78" priority="71"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39:E45">
-    <cfRule type="duplicateValues" dxfId="77" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39:E45">
-    <cfRule type="duplicateValues" dxfId="72" priority="65"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46:E52">
-    <cfRule type="duplicateValues" dxfId="71" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="58"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46:E52">
-    <cfRule type="duplicateValues" dxfId="66" priority="59"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53:E59">
-    <cfRule type="duplicateValues" dxfId="65" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53:E59">
-    <cfRule type="duplicateValues" dxfId="60" priority="53"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25:B59">
-    <cfRule type="duplicateValues" dxfId="59" priority="82"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="83"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="84"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="85"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="86"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="88"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25:E31">
-    <cfRule type="duplicateValues" dxfId="52" priority="89"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="90"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="91"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="92"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="93"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25:E31">
-    <cfRule type="duplicateValues" dxfId="47" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">

--- a/Onto_HidroSanitário/Ontologia_V1_Projeto_HidroSanitário.xlsx
+++ b/Onto_HidroSanitário/Ontologia_V1_Projeto_HidroSanitário.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ABNT_Normas\ABNT\Onto_Projeto_HidroSanitário\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3ACA7D-B8D2-4283-9850-E8FEBACBBC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5A1424-D6A3-4BFE-A983-F02FCEE73215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="150">
   <si>
     <t>Escopo</t>
   </si>
@@ -391,6 +391,105 @@
   </si>
   <si>
     <t>VENT01.ID.920106</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>"Tubo_afr_flex"</t>
+  </si>
+  <si>
+    <t>"Tub_afr_cnx01"</t>
+  </si>
+  <si>
+    <t>"Tub_afr"</t>
+  </si>
+  <si>
+    <t>"Tub_afr_ace01"</t>
+  </si>
+  <si>
+    <t>"Tub_afr_isol01"</t>
+  </si>
+  <si>
+    <t>"Tub_afr_equip01"</t>
+  </si>
+  <si>
+    <t>"Tub_afr_dispo01"</t>
+  </si>
+  <si>
+    <t>"Tub_aqu"</t>
+  </si>
+  <si>
+    <t>"Tub_aqu_flex"</t>
+  </si>
+  <si>
+    <t>"Tub_aqu_cnx01"</t>
+  </si>
+  <si>
+    <t>"Tub_aqu_ace01"</t>
+  </si>
+  <si>
+    <t>"Tub_aqu_isol01"</t>
+  </si>
+  <si>
+    <t>"Tub_aqu_equip01"</t>
+  </si>
+  <si>
+    <t>"Tub_aqu_dispo01"</t>
+  </si>
+  <si>
+    <t>"Tub_esgp"</t>
+  </si>
+  <si>
+    <t>"Tub_esgs"</t>
+  </si>
+  <si>
+    <t>"Tub_vent_flex"</t>
+  </si>
+  <si>
+    <t>"Tub_vent_cnx01"</t>
+  </si>
+  <si>
+    <t>"Tub_vent_ace01"</t>
+  </si>
+  <si>
+    <t>"Tub_vent_Isol01"</t>
+  </si>
+  <si>
+    <t>"Tub_vent_equip01"</t>
+  </si>
+  <si>
+    <t>"Tub_vent_dispo01"</t>
+  </si>
+  <si>
+    <t>"Tub_esgs_dispo01"</t>
+  </si>
+  <si>
+    <t>"Tub_esgs_equip01"</t>
+  </si>
+  <si>
+    <t>"Tub_esgs_isol01"</t>
+  </si>
+  <si>
+    <t>"Tub_esgs_aces01"</t>
+  </si>
+  <si>
+    <t>"Tub_esgs_cnx01"</t>
+  </si>
+  <si>
+    <t>"Tub_esgp_cnx01"</t>
+  </si>
+  <si>
+    <t>"Tub_esgp_aces01"</t>
+  </si>
+  <si>
+    <t>"Tub_esgp_isol01"</t>
+  </si>
+  <si>
+    <t>"Tub_esgp_equip01"</t>
+  </si>
+  <si>
+    <t>"Tub_esgp_dispo01"</t>
   </si>
 </sst>
 </file>
@@ -564,7 +663,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -644,6 +743,9 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1471,7 +1573,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -1773,14 +1875,14 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="56.5703125" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="56.5546875" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="56.5703125" style="1"/>
+    <col min="1" max="1" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="56.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1788,7 +1890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1796,7 +1898,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1804,7 +1906,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
@@ -1812,7 +1914,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -1821,7 +1923,7 @@
         <v>BIM.Prop</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1830,7 +1932,7 @@
         <v>BIM.Data</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1838,7 +1940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1846,7 +1948,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>31</v>
       </c>
@@ -1854,7 +1956,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
@@ -1862,7 +1964,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>2</v>
       </c>
@@ -1870,7 +1972,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>0</v>
       </c>
@@ -1878,7 +1980,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
@@ -1886,7 +1988,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>29</v>
       </c>
@@ -1894,7 +1996,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>30</v>
       </c>
@@ -1902,7 +2004,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>27</v>
       </c>
@@ -1910,16 +2012,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B17" s="12">
         <f ca="1">NOW()</f>
-        <v>45381.702272337963</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45383.313896874999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>41</v>
       </c>
@@ -1927,7 +2029,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>79</v>
       </c>
@@ -1945,36 +2047,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD98C55-DAEF-4EAA-9319-93A02A868795}">
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B53" sqref="B53:B59"/>
+      <selection pane="bottomLeft" activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.42578125" style="18" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="21" width="3.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="5.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.44140625" style="18" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="3.88671875" style="18" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="6" style="20" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="45.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.140625" style="2" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="2"/>
+    <col min="23" max="23" width="45.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.109375" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14">
         <v>1</v>
       </c>
@@ -2041,7 +2145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
         <v>2</v>
       </c>
@@ -2113,7 +2217,7 @@
         <v>"Objeto BIM de instalação  IfcDistributionSystem:   ifc.Sistema"</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>3</v>
       </c>
@@ -2185,7 +2289,7 @@
         <v>"Objeto BIM de instalação  ifcDiscreteAccessory:   ifc.Acessório"</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>4</v>
       </c>
@@ -2257,7 +2361,7 @@
         <v>"Objeto BIM de instalação  ifcPipeSegment:   ifc.Tubo"</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>5</v>
       </c>
@@ -2329,7 +2433,7 @@
         <v>"Objeto BIM de instalação  ifcPipeFitting:   ifc.Conexão"</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>6</v>
       </c>
@@ -2401,7 +2505,7 @@
         <v>"Objeto BIM de instalação  ifcVaIve:   ifc.VaIvula"</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>7</v>
       </c>
@@ -2473,7 +2577,7 @@
         <v>"Objeto BIM de instalação  ifcPump:   ifc.Bomba"</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>8</v>
       </c>
@@ -2545,7 +2649,7 @@
         <v>"Objeto BIM de instalação  ifcSanitaryTerminaI:   ifc.TerminaI.Esgoto"</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>9</v>
       </c>
@@ -2617,7 +2721,7 @@
         <v>"Objeto BIM de instalação  ifcTank:   ifc.Armazenador"</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>10</v>
       </c>
@@ -2689,7 +2793,7 @@
         <v>"Objeto BIM de instalação  ifcWasteTerminal:   ifc.Terminal.Desague"</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>11</v>
       </c>
@@ -2761,7 +2865,7 @@
         <v>"Objeto BIM de instalação  OST_PipingSystem:   Revit.Sistema"</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>12</v>
       </c>
@@ -2833,7 +2937,7 @@
         <v>"Objeto BIM de instalação  OST_PipeSegments:   Revit.Tubo"</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>13</v>
       </c>
@@ -2905,7 +3009,7 @@
         <v>"Objeto BIM de instalação  OST_FlexPipeCurves:   Revit.TuboFlex"</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>14</v>
       </c>
@@ -2977,7 +3081,7 @@
         <v>"Objeto BIM de instalação  OST_PipeFitting:   Revit.Conexão"</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>15</v>
       </c>
@@ -3049,7 +3153,7 @@
         <v>"Objeto BIM de instalação  OST_PipeAccessory:   Revit.Acessório"</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>16</v>
       </c>
@@ -3121,7 +3225,7 @@
         <v>"Objeto BIM de instalação  OST_PipeInsulations:   Revit.Isolante"</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>17</v>
       </c>
@@ -3193,7 +3297,7 @@
         <v>"Objeto BIM de instalação  OST_PlumbingEquipment:   Revit.Equipamento"</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>18</v>
       </c>
@@ -3265,7 +3369,7 @@
         <v>"Objeto BIM de instalação  OST_PlumbingFixtures:   Revit.Dispositivo"</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>19</v>
       </c>
@@ -3306,17 +3410,17 @@
         <v>13</v>
       </c>
       <c r="N19" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O19" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="O19" s="25" t="str">
-        <f>_xlfn.CONCAT("""",C19,"""")</f>
-        <v>"Sistema.Hidro"</v>
-      </c>
-      <c r="P19" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q19" s="19" t="s">
-        <v>13</v>
+      <c r="Q19" s="25" t="str">
+        <f>_xlfn.CONCAT("""",E19,"""")</f>
+        <v>"Revit.Sistema"</v>
       </c>
       <c r="R19" s="24" t="s">
         <v>13</v>
@@ -3338,7 +3442,7 @@
         <v>"Sistema de instalação  Sistema.Hidro: Usa o ID do elemento  SIS.Hidro.ID.100000"</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>20</v>
       </c>
@@ -3379,17 +3483,17 @@
         <v>13</v>
       </c>
       <c r="N20" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O20" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P20" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="O20" s="25" t="str">
-        <f t="shared" ref="O20:O59" si="5">_xlfn.CONCAT("""",C20,"""")</f>
-        <v>"Sistema.Hidro"</v>
-      </c>
-      <c r="P20" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q20" s="19" t="s">
-        <v>13</v>
+      <c r="Q20" s="25" t="str">
+        <f t="shared" ref="Q20:Q59" si="5">_xlfn.CONCAT("""",E20,"""")</f>
+        <v>"Revit.Sistema"</v>
       </c>
       <c r="R20" s="24" t="s">
         <v>13</v>
@@ -3411,7 +3515,7 @@
         <v>"Sistema de instalação  Sistema.Hidro: Usa o ID do elemento  SIS.AF.ID.200000"</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>21</v>
       </c>
@@ -3452,17 +3556,17 @@
         <v>13</v>
       </c>
       <c r="N21" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O21" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P21" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="O21" s="25" t="str">
+      <c r="Q21" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>"Sistema.Hidro"</v>
-      </c>
-      <c r="P21" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="19" t="s">
-        <v>13</v>
+        <v>"Revit.Sistema"</v>
       </c>
       <c r="R21" s="24" t="s">
         <v>13</v>
@@ -3484,7 +3588,7 @@
         <v>"Sistema de instalação  Sistema.Hidro: Usa o ID do elemento  SIS.AQ.ID.200100"</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>22</v>
       </c>
@@ -3525,17 +3629,17 @@
         <v>13</v>
       </c>
       <c r="N22" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O22" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P22" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="O22" s="25" t="str">
+      <c r="Q22" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>"Sistema.Hidro"</v>
-      </c>
-      <c r="P22" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q22" s="19" t="s">
-        <v>13</v>
+        <v>"Revit.Sistema"</v>
       </c>
       <c r="R22" s="24" t="s">
         <v>13</v>
@@ -3557,7 +3661,7 @@
         <v>"Sistema de instalação  Sistema.Hidro: Usa o ID do elemento  SIS.EGP.ID.300100"</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>23</v>
       </c>
@@ -3598,17 +3702,17 @@
         <v>13</v>
       </c>
       <c r="N23" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O23" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P23" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="O23" s="25" t="str">
+      <c r="Q23" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>"Sistema.Hidro"</v>
-      </c>
-      <c r="P23" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q23" s="19" t="s">
-        <v>13</v>
+        <v>"Revit.Sistema"</v>
       </c>
       <c r="R23" s="24" t="s">
         <v>13</v>
@@ -3630,7 +3734,7 @@
         <v>"Sistema de instalação  Sistema.Hidro: Usa o ID do elemento  SIS.EGS.ID.300200"</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>24</v>
       </c>
@@ -3671,17 +3775,17 @@
         <v>13</v>
       </c>
       <c r="N24" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O24" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="O24" s="25" t="str">
+      <c r="Q24" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>"Sistema.Hidro"</v>
-      </c>
-      <c r="P24" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q24" s="19" t="s">
-        <v>13</v>
+        <v>"Revit.Sistema"</v>
       </c>
       <c r="R24" s="24" t="s">
         <v>13</v>
@@ -3703,7 +3807,7 @@
         <v>"Sistema de instalação  Sistema.Hidro: Usa o ID do elemento  SIS.VEN.ID.300300"</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>25</v>
       </c>
@@ -3743,18 +3847,18 @@
       <c r="M25" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N25" s="24" t="s">
+      <c r="N25" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="O25" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="P25" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="O25" s="25" t="str">
+      <c r="Q25" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>"AguaFria"</v>
-      </c>
-      <c r="P25" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q25" s="19" t="s">
-        <v>13</v>
+        <v>"Revit.Tubo"</v>
       </c>
       <c r="R25" s="24" t="s">
         <v>13</v>
@@ -3776,7 +3880,7 @@
         <v>"Traçado da instalação  AguaFria: Usa o ID do elemento  AF01.ID.100108"</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>26</v>
       </c>
@@ -3816,18 +3920,18 @@
       <c r="M26" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N26" s="24" t="s">
+      <c r="N26" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="O26" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="P26" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="O26" s="25" t="str">
+      <c r="Q26" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>"AguaFria"</v>
-      </c>
-      <c r="P26" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q26" s="19" t="s">
-        <v>13</v>
+        <v>"Revit.TuboFlex"</v>
       </c>
       <c r="R26" s="24" t="s">
         <v>13</v>
@@ -3849,7 +3953,7 @@
         <v>"Traçado da instalação  AguaFria: Usa o ID do elemento  AF01.ID.100109"</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <v>27</v>
       </c>
@@ -3889,18 +3993,18 @@
       <c r="M27" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N27" s="24" t="s">
+      <c r="N27" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="O27" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="P27" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="O27" s="25" t="str">
+      <c r="Q27" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>"AguaFria"</v>
-      </c>
-      <c r="P27" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q27" s="19" t="s">
-        <v>13</v>
+        <v>"Revit.Conexão"</v>
       </c>
       <c r="R27" s="24" t="s">
         <v>13</v>
@@ -3922,7 +4026,7 @@
         <v>"Traçado da instalação  AguaFria: Usa o ID do elemento  AF01.ID.100110"</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <v>28</v>
       </c>
@@ -3962,18 +4066,18 @@
       <c r="M28" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N28" s="24" t="s">
+      <c r="N28" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="O28" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="P28" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="O28" s="25" t="str">
+      <c r="Q28" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>"AguaFria"</v>
-      </c>
-      <c r="P28" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q28" s="19" t="s">
-        <v>13</v>
+        <v>"Revit.Acessório"</v>
       </c>
       <c r="R28" s="24" t="s">
         <v>13</v>
@@ -3995,7 +4099,7 @@
         <v>"Traçado da instalação  AguaFria: Usa o ID do elemento  AF01.ID.100111"</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>29</v>
       </c>
@@ -4035,18 +4139,18 @@
       <c r="M29" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N29" s="24" t="s">
+      <c r="N29" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="O29" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="P29" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="O29" s="25" t="str">
+      <c r="Q29" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>"AguaFria"</v>
-      </c>
-      <c r="P29" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q29" s="19" t="s">
-        <v>13</v>
+        <v>"Revit.Isolante"</v>
       </c>
       <c r="R29" s="24" t="s">
         <v>13</v>
@@ -4068,7 +4172,7 @@
         <v>"Traçado da instalação  AguaFria: Usa o ID do elemento  AF01.ID.100112"</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
         <v>30</v>
       </c>
@@ -4108,18 +4212,18 @@
       <c r="M30" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N30" s="24" t="s">
+      <c r="N30" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="O30" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="P30" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="O30" s="25" t="str">
+      <c r="Q30" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>"AguaFria"</v>
-      </c>
-      <c r="P30" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q30" s="19" t="s">
-        <v>13</v>
+        <v>"Revit.Equipamento"</v>
       </c>
       <c r="R30" s="24" t="s">
         <v>13</v>
@@ -4141,7 +4245,7 @@
         <v>"Traçado da instalação  AguaFria: Usa o ID do elemento  AF01.ID.100113"</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
         <v>31</v>
       </c>
@@ -4181,18 +4285,18 @@
       <c r="M31" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N31" s="24" t="s">
+      <c r="N31" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="O31" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="P31" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="O31" s="25" t="str">
+      <c r="Q31" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>"AguaFria"</v>
-      </c>
-      <c r="P31" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q31" s="19" t="s">
-        <v>13</v>
+        <v>"Revit.Dispositivo"</v>
       </c>
       <c r="R31" s="24" t="s">
         <v>13</v>
@@ -4214,7 +4318,7 @@
         <v>"Traçado da instalação  AguaFria: Usa o ID do elemento  AF01.ID.100114"</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
         <v>32</v>
       </c>
@@ -4254,18 +4358,18 @@
       <c r="M32" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N32" s="24" t="s">
+      <c r="N32" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="O32" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="P32" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="O32" s="25" t="str">
+      <c r="Q32" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>"AguaQuente"</v>
-      </c>
-      <c r="P32" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q32" s="19" t="s">
-        <v>13</v>
+        <v>"Revit.Tubo"</v>
       </c>
       <c r="R32" s="24" t="s">
         <v>13</v>
@@ -4287,7 +4391,7 @@
         <v>"Traçado da instalação  AguaQuente: Usa o ID do elemento  AQ01.ID.200108"</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
         <v>33</v>
       </c>
@@ -4327,18 +4431,18 @@
       <c r="M33" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N33" s="24" t="s">
+      <c r="N33" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="O33" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="P33" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="O33" s="25" t="str">
+      <c r="Q33" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>"AguaQuente"</v>
-      </c>
-      <c r="P33" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q33" s="19" t="s">
-        <v>13</v>
+        <v>"Revit.TuboFlex"</v>
       </c>
       <c r="R33" s="24" t="s">
         <v>13</v>
@@ -4360,7 +4464,7 @@
         <v>"Traçado da instalação  AguaQuente: Usa o ID do elemento  AQ01.ID.200109"</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
         <v>34</v>
       </c>
@@ -4400,18 +4504,18 @@
       <c r="M34" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N34" s="24" t="s">
+      <c r="N34" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="O34" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="P34" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="O34" s="25" t="str">
+      <c r="Q34" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>"AguaQuente"</v>
-      </c>
-      <c r="P34" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q34" s="19" t="s">
-        <v>13</v>
+        <v>"Revit.Conexão"</v>
       </c>
       <c r="R34" s="24" t="s">
         <v>13</v>
@@ -4433,7 +4537,7 @@
         <v>"Traçado da instalação  AguaQuente: Usa o ID do elemento  AQ01.ID.200110"</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
         <v>35</v>
       </c>
@@ -4473,18 +4577,18 @@
       <c r="M35" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N35" s="24" t="s">
+      <c r="N35" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="O35" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="P35" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="O35" s="25" t="str">
+      <c r="Q35" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>"AguaQuente"</v>
-      </c>
-      <c r="P35" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q35" s="19" t="s">
-        <v>13</v>
+        <v>"Revit.Acessório"</v>
       </c>
       <c r="R35" s="24" t="s">
         <v>13</v>
@@ -4506,7 +4610,7 @@
         <v>"Traçado da instalação  AguaQuente: Usa o ID do elemento  AQ01.ID.200111"</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14">
         <v>36</v>
       </c>
@@ -4546,18 +4650,18 @@
       <c r="M36" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N36" s="24" t="s">
+      <c r="N36" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="O36" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="P36" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="O36" s="25" t="str">
+      <c r="Q36" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>"AguaQuente"</v>
-      </c>
-      <c r="P36" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q36" s="19" t="s">
-        <v>13</v>
+        <v>"Revit.Isolante"</v>
       </c>
       <c r="R36" s="24" t="s">
         <v>13</v>
@@ -4579,7 +4683,7 @@
         <v>"Traçado da instalação  AguaQuente: Usa o ID do elemento  AQ01.ID.200112"</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14">
         <v>37</v>
       </c>
@@ -4619,18 +4723,18 @@
       <c r="M37" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N37" s="24" t="s">
+      <c r="N37" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="O37" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="P37" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="O37" s="25" t="str">
+      <c r="Q37" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>"AguaQuente"</v>
-      </c>
-      <c r="P37" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q37" s="19" t="s">
-        <v>13</v>
+        <v>"Revit.Equipamento"</v>
       </c>
       <c r="R37" s="24" t="s">
         <v>13</v>
@@ -4652,7 +4756,7 @@
         <v>"Traçado da instalação  AguaQuente: Usa o ID do elemento  AQ01.ID.200113"</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14">
         <v>38</v>
       </c>
@@ -4692,18 +4796,18 @@
       <c r="M38" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N38" s="24" t="s">
+      <c r="N38" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="O38" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="P38" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="O38" s="25" t="str">
+      <c r="Q38" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>"AguaQuente"</v>
-      </c>
-      <c r="P38" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q38" s="19" t="s">
-        <v>13</v>
+        <v>"Revit.Dispositivo"</v>
       </c>
       <c r="R38" s="24" t="s">
         <v>13</v>
@@ -4725,7 +4829,7 @@
         <v>"Traçado da instalação  AguaQuente: Usa o ID do elemento  AQ01.ID.200114"</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14">
         <v>39</v>
       </c>
@@ -4765,18 +4869,18 @@
       <c r="M39" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N39" s="24" t="s">
+      <c r="N39" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="O39" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="P39" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="O39" s="25" t="str">
+      <c r="Q39" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>"EsgotoPrimário"</v>
-      </c>
-      <c r="P39" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q39" s="19" t="s">
-        <v>13</v>
+        <v>"Revit.Tubo"</v>
       </c>
       <c r="R39" s="24" t="s">
         <v>13</v>
@@ -4798,7 +4902,7 @@
         <v>"Traçado da instalação  EsgotoPrimário: Usa o ID do elemento  ESGP01.ID.900108"</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
         <v>40</v>
       </c>
@@ -4838,18 +4942,18 @@
       <c r="M40" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N40" s="24" t="s">
+      <c r="N40" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="O40" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="P40" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="O40" s="25" t="str">
+      <c r="Q40" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>"EsgotoPrimário"</v>
-      </c>
-      <c r="P40" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q40" s="19" t="s">
-        <v>13</v>
+        <v>"Revit.TuboFlex"</v>
       </c>
       <c r="R40" s="24" t="s">
         <v>13</v>
@@ -4871,7 +4975,7 @@
         <v>"Traçado da instalação  EsgotoPrimário: Usa o ID do elemento  ESGP01.ID.900109"</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14">
         <v>41</v>
       </c>
@@ -4911,18 +5015,18 @@
       <c r="M41" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N41" s="24" t="s">
+      <c r="N41" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="O41" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="P41" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="O41" s="25" t="str">
+      <c r="Q41" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>"EsgotoPrimário"</v>
-      </c>
-      <c r="P41" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q41" s="19" t="s">
-        <v>13</v>
+        <v>"Revit.Conexão"</v>
       </c>
       <c r="R41" s="24" t="s">
         <v>13</v>
@@ -4944,7 +5048,7 @@
         <v>"Traçado da instalação  EsgotoPrimário: Usa o ID do elemento  ESGP01.ID.900110"</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14">
         <v>42</v>
       </c>
@@ -4984,18 +5088,18 @@
       <c r="M42" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N42" s="24" t="s">
+      <c r="N42" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="O42" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="P42" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="O42" s="25" t="str">
+      <c r="Q42" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>"EsgotoPrimário"</v>
-      </c>
-      <c r="P42" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q42" s="19" t="s">
-        <v>13</v>
+        <v>"Revit.Acessório"</v>
       </c>
       <c r="R42" s="24" t="s">
         <v>13</v>
@@ -5017,7 +5121,7 @@
         <v>"Traçado da instalação  EsgotoPrimário: Usa o ID do elemento  ESGP01.ID.900111"</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14">
         <v>43</v>
       </c>
@@ -5057,18 +5161,18 @@
       <c r="M43" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N43" s="24" t="s">
+      <c r="N43" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="O43" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="P43" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="O43" s="25" t="str">
+      <c r="Q43" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>"EsgotoPrimário"</v>
-      </c>
-      <c r="P43" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q43" s="19" t="s">
-        <v>13</v>
+        <v>"Revit.Isolante"</v>
       </c>
       <c r="R43" s="24" t="s">
         <v>13</v>
@@ -5090,7 +5194,7 @@
         <v>"Traçado da instalação  EsgotoPrimário: Usa o ID do elemento  ESGP01.ID.900112"</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14">
         <v>44</v>
       </c>
@@ -5130,18 +5234,18 @@
       <c r="M44" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N44" s="24" t="s">
+      <c r="N44" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="O44" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="P44" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="O44" s="25" t="str">
+      <c r="Q44" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>"EsgotoPrimário"</v>
-      </c>
-      <c r="P44" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q44" s="19" t="s">
-        <v>13</v>
+        <v>"Revit.Equipamento"</v>
       </c>
       <c r="R44" s="24" t="s">
         <v>13</v>
@@ -5163,7 +5267,7 @@
         <v>"Traçado da instalação  EsgotoPrimário: Usa o ID do elemento  ESGP01.ID.900113"</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14">
         <v>45</v>
       </c>
@@ -5203,18 +5307,18 @@
       <c r="M45" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N45" s="24" t="s">
+      <c r="N45" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="O45" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="P45" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="O45" s="25" t="str">
+      <c r="Q45" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>"EsgotoPrimário"</v>
-      </c>
-      <c r="P45" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q45" s="19" t="s">
-        <v>13</v>
+        <v>"Revit.Dispositivo"</v>
       </c>
       <c r="R45" s="24" t="s">
         <v>13</v>
@@ -5236,7 +5340,7 @@
         <v>"Traçado da instalação  EsgotoPrimário: Usa o ID do elemento  ESGP01.ID.900114"</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14">
         <v>46</v>
       </c>
@@ -5276,18 +5380,18 @@
       <c r="M46" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N46" s="24" t="s">
+      <c r="N46" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="O46" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="P46" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="O46" s="25" t="str">
+      <c r="Q46" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>"EsgotoSecundário"</v>
-      </c>
-      <c r="P46" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q46" s="19" t="s">
-        <v>13</v>
+        <v>"Revit.Tubo"</v>
       </c>
       <c r="R46" s="24" t="s">
         <v>13</v>
@@ -5309,7 +5413,7 @@
         <v>"Traçado da instalação  EsgotoSecundário: Usa o ID do elemento  ESGS01.ID.910108"</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14">
         <v>47</v>
       </c>
@@ -5349,18 +5453,18 @@
       <c r="M47" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N47" s="24" t="s">
+      <c r="N47" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="O47" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="P47" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="O47" s="25" t="str">
+      <c r="Q47" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>"EsgotoSecundário"</v>
-      </c>
-      <c r="P47" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q47" s="19" t="s">
-        <v>13</v>
+        <v>"Revit.TuboFlex"</v>
       </c>
       <c r="R47" s="24" t="s">
         <v>13</v>
@@ -5382,7 +5486,7 @@
         <v>"Traçado da instalação  EsgotoSecundário: Usa o ID do elemento  ESGS.ID.910109"</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14">
         <v>48</v>
       </c>
@@ -5422,18 +5526,18 @@
       <c r="M48" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N48" s="24" t="s">
+      <c r="N48" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="O48" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="P48" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="O48" s="25" t="str">
+      <c r="Q48" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>"EsgotoSecundário"</v>
-      </c>
-      <c r="P48" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q48" s="19" t="s">
-        <v>13</v>
+        <v>"Revit.Conexão"</v>
       </c>
       <c r="R48" s="24" t="s">
         <v>13</v>
@@ -5455,7 +5559,7 @@
         <v>"Traçado da instalação  EsgotoSecundário: Usa o ID do elemento  ESGS.ID.910110"</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14">
         <v>49</v>
       </c>
@@ -5495,18 +5599,18 @@
       <c r="M49" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N49" s="24" t="s">
+      <c r="N49" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="O49" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="P49" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="O49" s="25" t="str">
+      <c r="Q49" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>"EsgotoSecundário"</v>
-      </c>
-      <c r="P49" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q49" s="19" t="s">
-        <v>13</v>
+        <v>"Revit.Acessório"</v>
       </c>
       <c r="R49" s="24" t="s">
         <v>13</v>
@@ -5528,7 +5632,7 @@
         <v>"Traçado da instalação  EsgotoSecundário: Usa o ID do elemento  ESGS.ID.910111"</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14">
         <v>50</v>
       </c>
@@ -5568,18 +5672,18 @@
       <c r="M50" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N50" s="24" t="s">
+      <c r="N50" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="O50" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="P50" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="O50" s="25" t="str">
+      <c r="Q50" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>"EsgotoSecundário"</v>
-      </c>
-      <c r="P50" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q50" s="19" t="s">
-        <v>13</v>
+        <v>"Revit.Isolante"</v>
       </c>
       <c r="R50" s="24" t="s">
         <v>13</v>
@@ -5601,7 +5705,7 @@
         <v>"Traçado da instalação  EsgotoSecundário: Usa o ID do elemento  ESGS.ID.910112"</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>51</v>
       </c>
@@ -5641,18 +5745,18 @@
       <c r="M51" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N51" s="24" t="s">
+      <c r="N51" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="O51" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="P51" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="O51" s="25" t="str">
+      <c r="Q51" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>"EsgotoSecundário"</v>
-      </c>
-      <c r="P51" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q51" s="19" t="s">
-        <v>13</v>
+        <v>"Revit.Equipamento"</v>
       </c>
       <c r="R51" s="24" t="s">
         <v>13</v>
@@ -5674,7 +5778,7 @@
         <v>"Traçado da instalação  EsgotoSecundário: Usa o ID do elemento  ESGS.ID.910113"</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14">
         <v>52</v>
       </c>
@@ -5714,18 +5818,18 @@
       <c r="M52" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N52" s="24" t="s">
+      <c r="N52" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="O52" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="P52" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="O52" s="25" t="str">
+      <c r="Q52" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>"EsgotoSecundário"</v>
-      </c>
-      <c r="P52" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q52" s="19" t="s">
-        <v>13</v>
+        <v>"Revit.Dispositivo"</v>
       </c>
       <c r="R52" s="24" t="s">
         <v>13</v>
@@ -5747,7 +5851,7 @@
         <v>"Traçado da instalação  EsgotoSecundário: Usa o ID do elemento  ESGS.ID.910114"</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14">
         <v>53</v>
       </c>
@@ -5787,18 +5891,18 @@
       <c r="M53" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N53" s="24" t="s">
+      <c r="N53" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="O53" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="P53" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="O53" s="25" t="str">
+      <c r="Q53" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>"VentilaçãoEsgoto"</v>
-      </c>
-      <c r="P53" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q53" s="19" t="s">
-        <v>13</v>
+        <v>"Revit.Tubo"</v>
       </c>
       <c r="R53" s="24" t="s">
         <v>13</v>
@@ -5820,7 +5924,7 @@
         <v>"Traçado da instalação  VentilaçãoEsgoto: Usa o ID do elemento  VENT01.ID.920100"</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14">
         <v>54</v>
       </c>
@@ -5860,18 +5964,18 @@
       <c r="M54" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N54" s="24" t="s">
+      <c r="N54" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="O54" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="P54" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="O54" s="25" t="str">
+      <c r="Q54" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>"VentilaçãoEsgoto"</v>
-      </c>
-      <c r="P54" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q54" s="19" t="s">
-        <v>13</v>
+        <v>"Revit.TuboFlex"</v>
       </c>
       <c r="R54" s="24" t="s">
         <v>13</v>
@@ -5893,7 +5997,7 @@
         <v>"Traçado da instalação  VentilaçãoEsgoto: Usa o ID do elemento  VENT01.ID.920101"</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14">
         <v>55</v>
       </c>
@@ -5933,18 +6037,18 @@
       <c r="M55" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N55" s="24" t="s">
+      <c r="N55" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="O55" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="P55" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="O55" s="25" t="str">
+      <c r="Q55" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>"VentilaçãoEsgoto"</v>
-      </c>
-      <c r="P55" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q55" s="19" t="s">
-        <v>13</v>
+        <v>"Revit.Conexão"</v>
       </c>
       <c r="R55" s="24" t="s">
         <v>13</v>
@@ -5966,7 +6070,7 @@
         <v>"Traçado da instalação  VentilaçãoEsgoto: Usa o ID do elemento  VENT01.ID.920102"</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14">
         <v>56</v>
       </c>
@@ -6006,18 +6110,18 @@
       <c r="M56" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N56" s="24" t="s">
+      <c r="N56" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="O56" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="P56" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="O56" s="25" t="str">
+      <c r="Q56" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>"VentilaçãoEsgoto"</v>
-      </c>
-      <c r="P56" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q56" s="19" t="s">
-        <v>13</v>
+        <v>"Revit.Acessório"</v>
       </c>
       <c r="R56" s="24" t="s">
         <v>13</v>
@@ -6039,7 +6143,7 @@
         <v>"Traçado da instalação  VentilaçãoEsgoto: Usa o ID do elemento  VENT01.ID.920103"</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14">
         <v>57</v>
       </c>
@@ -6079,18 +6183,18 @@
       <c r="M57" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N57" s="24" t="s">
+      <c r="N57" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="O57" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="P57" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="O57" s="25" t="str">
+      <c r="Q57" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>"VentilaçãoEsgoto"</v>
-      </c>
-      <c r="P57" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q57" s="19" t="s">
-        <v>13</v>
+        <v>"Revit.Isolante"</v>
       </c>
       <c r="R57" s="24" t="s">
         <v>13</v>
@@ -6112,7 +6216,7 @@
         <v>"Traçado da instalação  VentilaçãoEsgoto: Usa o ID do elemento  VENT01.ID.920104"</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14">
         <v>58</v>
       </c>
@@ -6152,18 +6256,18 @@
       <c r="M58" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N58" s="24" t="s">
+      <c r="N58" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="O58" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="P58" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="O58" s="25" t="str">
+      <c r="Q58" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>"VentilaçãoEsgoto"</v>
-      </c>
-      <c r="P58" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q58" s="19" t="s">
-        <v>13</v>
+        <v>"Revit.Equipamento"</v>
       </c>
       <c r="R58" s="24" t="s">
         <v>13</v>
@@ -6185,7 +6289,7 @@
         <v>"Traçado da instalação  VentilaçãoEsgoto: Usa o ID do elemento  VENT01.ID.920105"</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14">
         <v>59</v>
       </c>
@@ -6225,18 +6329,18 @@
       <c r="M59" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N59" s="24" t="s">
+      <c r="N59" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="O59" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="P59" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="O59" s="25" t="str">
+      <c r="Q59" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>"VentilaçãoEsgoto"</v>
-      </c>
-      <c r="P59" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q59" s="19" t="s">
-        <v>13</v>
+        <v>"Revit.Dispositivo"</v>
       </c>
       <c r="R59" s="24" t="s">
         <v>13</v>
@@ -6263,7 +6367,7 @@
     <sortCondition ref="B1:B18"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A2:A59 J20:XFD59 D20:D1048576 F25:H59">
+  <conditionalFormatting sqref="A2:A59 D20:D1048576 F25:H59 J20:M59 Q20:XFD59">
     <cfRule type="cellIs" dxfId="82" priority="81" operator="equal">
       <formula>"null"</formula>
     </cfRule>
@@ -6284,28 +6388,28 @@
     <cfRule type="duplicateValues" dxfId="75" priority="4602"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="74" priority="102"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="102"/>
     <cfRule type="duplicateValues" dxfId="72" priority="96"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="101"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="97"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="98"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B24">
-    <cfRule type="duplicateValues" dxfId="67" priority="77"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="76"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="74"/>
     <cfRule type="duplicateValues" dxfId="62" priority="79"/>
     <cfRule type="duplicateValues" dxfId="61" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B59">
     <cfRule type="duplicateValues" dxfId="60" priority="87"/>
     <cfRule type="duplicateValues" dxfId="59" priority="86"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="84"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="84"/>
     <cfRule type="duplicateValues" dxfId="56" priority="83"/>
     <cfRule type="duplicateValues" dxfId="55" priority="88"/>
     <cfRule type="duplicateValues" dxfId="54" priority="82"/>
@@ -6321,20 +6425,20 @@
     <cfRule type="duplicateValues" dxfId="50" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3">
-    <cfRule type="duplicateValues" dxfId="49" priority="500"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="501"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="501"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="500"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C18">
-    <cfRule type="duplicateValues" dxfId="47" priority="4605"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="4606"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="4607"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="4608"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="4604"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="4604"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="4605"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="4606"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="4607"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="4608"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C18">
     <cfRule type="duplicateValues" dxfId="42" priority="4614"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:XFD19">
+  <conditionalFormatting sqref="D2:XFD18 D19:M19 P19:XFD19 N19:O59 P20:P59">
     <cfRule type="cellIs" dxfId="41" priority="95" operator="equal">
       <formula>"null"</formula>
     </cfRule>
@@ -6348,28 +6452,28 @@
     <cfRule type="duplicateValues" dxfId="35" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32:E38">
-    <cfRule type="duplicateValues" dxfId="34" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="70"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:E45">
     <cfRule type="duplicateValues" dxfId="28" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="60"/>
     <cfRule type="duplicateValues" dxfId="23" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46:E52">
-    <cfRule type="duplicateValues" dxfId="22" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53:E59">
     <cfRule type="duplicateValues" dxfId="16" priority="53"/>

--- a/Onto_HidroSanitário/Ontologia_V1_Projeto_HidroSanitário.xlsx
+++ b/Onto_HidroSanitário/Ontologia_V1_Projeto_HidroSanitário.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ABNT_Normas\ABNT\Onto_Projeto_HidroSanitário\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5A1424-D6A3-4BFE-A983-F02FCEE73215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CFF4F5-6376-4F4F-ADB8-89920E0ADCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="B17" s="12">
         <f ca="1">NOW()</f>
-        <v>45383.313896874999</v>
+        <v>45383.699519097223</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2047,7 +2047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD98C55-DAEF-4EAA-9319-93A02A868795}">
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N25" sqref="N25"/>
     </sheetView>
@@ -6367,7 +6367,7 @@
     <sortCondition ref="B1:B18"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A2:A59 D20:D1048576 F25:H59 J20:M59 Q20:XFD59">
+  <conditionalFormatting sqref="A2:A59 N19:XFD59 J20:M59 D20:D1048576 F25:H59">
     <cfRule type="cellIs" dxfId="82" priority="81" operator="equal">
       <formula>"null"</formula>
     </cfRule>
@@ -6438,7 +6438,7 @@
   <conditionalFormatting sqref="C4:C18">
     <cfRule type="duplicateValues" dxfId="42" priority="4614"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:XFD18 D19:M19 P19:XFD19 N19:O59 P20:P59">
+  <conditionalFormatting sqref="D2:XFD18 D19:M19">
     <cfRule type="cellIs" dxfId="41" priority="95" operator="equal">
       <formula>"null"</formula>
     </cfRule>
